--- a/public/upload-file/CompetitionPassUpload.xlsx
+++ b/public/upload-file/CompetitionPassUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHUPESH MISHRA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E520AE-6177-4EAE-81C7-9CF5FF94D2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E054ED-9C0F-44E4-90F0-6FD8E519BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{528BF9E7-4CA6-4C2F-B588-602E80C3987E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NO</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Student Id</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
     <t>Seat No</t>
   </si>
   <si>
@@ -63,7 +60,7 @@
     <t>V123</t>
   </si>
   <si>
-    <t>UE 3G Abacus Pte Ltd134 Jurong Gateway Road #04-307A Singapore 600134</t>
+    <t>UE 3G Abacus Pte Ltd &lt;br&gt; 134 Jurong Gateway Road #04-307A Singapore 600134</t>
   </si>
 </sst>
 </file>
@@ -152,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,9 +165,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,25 +480,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7891C0-4A43-4875-98ED-5BCD04E0A13E}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,46 +513,40 @@
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
-        <v>45083</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
       <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
